--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprf</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H2">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I2">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J2">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N2">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q2">
-        <v>0.01531097401866667</v>
+        <v>0.0008349253123333334</v>
       </c>
       <c r="R2">
-        <v>0.137798766168</v>
+        <v>0.007514327811000001</v>
       </c>
       <c r="S2">
-        <v>0.00741005681671367</v>
+        <v>0.0001841954667136839</v>
       </c>
       <c r="T2">
-        <v>0.007410056816713669</v>
+        <v>0.0001841954667136839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H3">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I3">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J3">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.489707</v>
       </c>
       <c r="O3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q3">
-        <v>0.8811858510817777</v>
+        <v>0.02612379235566666</v>
       </c>
       <c r="R3">
-        <v>7.930672659735999</v>
+        <v>0.235114131201</v>
       </c>
       <c r="S3">
-        <v>0.4264677880479342</v>
+        <v>0.00576325098090008</v>
       </c>
       <c r="T3">
-        <v>0.4264677880479341</v>
+        <v>0.005763250980900081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H4">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I4">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J4">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N4">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O4">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P4">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q4">
-        <v>0.6424216982533334</v>
+        <v>0.02335704969033333</v>
       </c>
       <c r="R4">
-        <v>5.78179528428</v>
+        <v>0.210213447213</v>
       </c>
       <c r="S4">
-        <v>0.3109130273843568</v>
+        <v>0.005152871287064335</v>
       </c>
       <c r="T4">
-        <v>0.3109130273843567</v>
+        <v>0.005152871287064334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1511493333333333</v>
+        <v>0.004481</v>
       </c>
       <c r="H5">
-        <v>0.453448</v>
+        <v>0.013443</v>
       </c>
       <c r="I5">
-        <v>0.7495144539818079</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="J5">
-        <v>0.7495144539818078</v>
+        <v>0.01111165297720057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N5">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q5">
-        <v>0.00976006513511111</v>
+        <v>5.138063966666667E-05</v>
       </c>
       <c r="R5">
-        <v>0.08784058621599999</v>
+        <v>0.000462425757</v>
       </c>
       <c r="S5">
-        <v>0.004723581732803281</v>
+        <v>1.133524252247233E-05</v>
       </c>
       <c r="T5">
-        <v>0.00472358173280328</v>
+        <v>1.133524252247233E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H6">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I6">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J6">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N6">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O6">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P6">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q6">
-        <v>0.005116882892333333</v>
+        <v>0.02816300029955556</v>
       </c>
       <c r="R6">
-        <v>0.046051946031</v>
+        <v>0.253467002696</v>
       </c>
       <c r="S6">
-        <v>0.002476419391113438</v>
+        <v>0.006213126979869564</v>
       </c>
       <c r="T6">
-        <v>0.002476419391113438</v>
+        <v>0.006213126979869562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H7">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I7">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J7">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>17.489707</v>
       </c>
       <c r="O7">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P7">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q7">
-        <v>0.2944897431652221</v>
+        <v>0.8811858510817777</v>
       </c>
       <c r="R7">
-        <v>2.650407688486999</v>
+        <v>7.930672659735999</v>
       </c>
       <c r="S7">
-        <v>0.1425242918009827</v>
+        <v>0.1944011478678256</v>
       </c>
       <c r="T7">
-        <v>0.1425242918009827</v>
+        <v>0.1944011478678256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,14 +894,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H8">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I8">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J8">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N8">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O8">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P8">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q8">
-        <v>0.2146954591816667</v>
+        <v>0.787860408240889</v>
       </c>
       <c r="R8">
-        <v>1.932259132635</v>
+        <v>7.090743674167999</v>
       </c>
       <c r="S8">
-        <v>0.1039062275781409</v>
+        <v>0.1738123320223721</v>
       </c>
       <c r="T8">
-        <v>0.1039062275781408</v>
+        <v>0.1738123320223721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,46 +971,294 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05051366666666666</v>
+        <v>0.1511493333333333</v>
       </c>
       <c r="H9">
-        <v>0.151541</v>
+        <v>0.453448</v>
       </c>
       <c r="I9">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="J9">
-        <v>0.2504855460181921</v>
+        <v>0.3748089577628241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N9">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O9">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P9">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q9">
-        <v>0.003261785321888888</v>
+        <v>0.001733128639111111</v>
       </c>
       <c r="R9">
-        <v>0.02935606789699999</v>
+        <v>0.015598157752</v>
       </c>
       <c r="S9">
-        <v>0.001578607247955095</v>
+        <v>0.0003823508927568274</v>
       </c>
       <c r="T9">
-        <v>0.001578607247955095</v>
+        <v>0.0003823508927568273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.24764</v>
+      </c>
+      <c r="H10">
+        <v>0.74292</v>
+      </c>
+      <c r="I10">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J10">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1863256666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.5589770000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.01657678358851065</v>
+      </c>
+      <c r="P10">
+        <v>0.01657678358851065</v>
+      </c>
+      <c r="Q10">
+        <v>0.04614168809333334</v>
+      </c>
+      <c r="R10">
+        <v>0.41527519284</v>
+      </c>
+      <c r="S10">
+        <v>0.0101794611419274</v>
+      </c>
+      <c r="T10">
+        <v>0.0101794611419274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.24764</v>
+      </c>
+      <c r="H11">
+        <v>0.74292</v>
+      </c>
+      <c r="I11">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J11">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.829902333333333</v>
+      </c>
+      <c r="N11">
+        <v>17.489707</v>
+      </c>
+      <c r="O11">
+        <v>0.5186672939413604</v>
+      </c>
+      <c r="P11">
+        <v>0.5186672939413604</v>
+      </c>
+      <c r="Q11">
+        <v>1.443717013826667</v>
+      </c>
+      <c r="R11">
+        <v>12.99345312444</v>
+      </c>
+      <c r="S11">
+        <v>0.3185028950926346</v>
+      </c>
+      <c r="T11">
+        <v>0.3185028950926347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.24764</v>
+      </c>
+      <c r="H12">
+        <v>0.74292</v>
+      </c>
+      <c r="I12">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J12">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.212463666666667</v>
+      </c>
+      <c r="N12">
+        <v>15.637391</v>
+      </c>
+      <c r="O12">
+        <v>0.4637358003923671</v>
+      </c>
+      <c r="P12">
+        <v>0.4637358003923669</v>
+      </c>
+      <c r="Q12">
+        <v>1.290814502413334</v>
+      </c>
+      <c r="R12">
+        <v>11.61733052172</v>
+      </c>
+      <c r="S12">
+        <v>0.2847705970829306</v>
+      </c>
+      <c r="T12">
+        <v>0.2847705970829306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.24764</v>
+      </c>
+      <c r="H13">
+        <v>0.74292</v>
+      </c>
+      <c r="I13">
+        <v>0.6140793892599753</v>
+      </c>
+      <c r="J13">
+        <v>0.6140793892599754</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.01146633333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.034399</v>
+      </c>
+      <c r="O13">
+        <v>0.001020122077762015</v>
+      </c>
+      <c r="P13">
+        <v>0.001020122077762015</v>
+      </c>
+      <c r="Q13">
+        <v>0.002839522786666667</v>
+      </c>
+      <c r="R13">
+        <v>0.02555570508</v>
+      </c>
+      <c r="S13">
+        <v>0.0006264359424827152</v>
+      </c>
+      <c r="T13">
+        <v>0.0006264359424827152</v>
       </c>
     </row>
   </sheetData>
